--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950273DB-378E-4A10-A7CB-B287399D3DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8448C-9A94-41C7-9A44-B8CD3EDB690B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="710">
   <si>
     <t>label</t>
   </si>
@@ -2157,6 +2157,18 @@
   </si>
   <si>
     <t>eth_sch_sth_remaping_1_school_202105</t>
+  </si>
+  <si>
+    <t>. &gt; 99 and . &lt; 1000</t>
+  </si>
+  <si>
+    <t>The code must be between 99 and 1000</t>
+  </si>
+  <si>
+    <t>c_school_other</t>
+  </si>
+  <si>
+    <t>c_school_code_other</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2254,6 +2266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2486,6 +2504,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3407,13 +3426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3442,7 @@
     <col min="3" max="3" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="43.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
@@ -3640,6 +3659,9 @@
       <c r="C13" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="H13" s="41" t="s">
+        <v>692</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3654,87 +3676,96 @@
       <c r="C14" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>695</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>709</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>695</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>120</v>
+    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>701</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>97</v>
@@ -3742,13 +3773,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>97</v>
@@ -3759,10 +3796,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>97</v>
@@ -3773,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>97</v>
@@ -3787,10 +3833,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>97</v>
@@ -3801,10 +3847,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>97</v>
@@ -3815,10 +3861,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>97</v>
@@ -3829,10 +3875,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>97</v>
@@ -3843,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>97</v>
@@ -3854,22 +3900,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>698</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="N28" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3877,10 +3917,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>97</v>
@@ -3888,16 +3928,22 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>698</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3905,10 +3951,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>97</v>
@@ -3919,10 +3965,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>97</v>
@@ -3933,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>97</v>
@@ -3947,10 +3993,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>97</v>
@@ -3961,10 +4007,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>97</v>
@@ -3975,10 +4021,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>97</v>
@@ -3986,76 +4032,76 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>699</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N37" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>37</v>
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>699</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>142</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>97</v>
@@ -4063,27 +4109,27 @@
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>97</v>
@@ -4091,13 +4137,13 @@
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>42</v>
+        <v>159</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>97</v>
@@ -4105,13 +4151,13 @@
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>97</v>
@@ -4122,128 +4168,128 @@
         <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>44</v>
+        <v>165</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>188</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>51</v>
+        <v>190</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>97</v>
@@ -4251,83 +4297,83 @@
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>197</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>55</v>
+        <v>199</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>56</v>
+        <v>212</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>218</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>97</v>
@@ -4335,41 +4381,41 @@
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>59</v>
+        <v>220</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C63" t="s">
-        <v>60</v>
+        <v>226</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>97</v>
@@ -4380,75 +4426,69 @@
         <v>153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>97</v>
@@ -4456,13 +4496,13 @@
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>249</v>
@@ -4473,13 +4513,13 @@
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>249</v>
@@ -4488,19 +4528,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>97</v>
@@ -4508,13 +4547,13 @@
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>249</v>
@@ -4523,67 +4562,102 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>70</v>
+        <v>265</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="H74" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>267</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4882,10 +4956,10 @@
   <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C430" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79:XFD79"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11095,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11136,19 +11210,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -11371,7 +11437,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
@@ -11379,15 +11445,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11406,7 +11473,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -11421,4 +11488,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8448C-9A94-41C7-9A44-B8CD3EDB690B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73377D4D-4CFC-40CE-AF52-A035BA7E2460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="713">
   <si>
     <t>label</t>
   </si>
@@ -2150,15 +2150,9 @@
     <t>.&gt;=1 and .&lt;=8 and .&gt;=${c_lowestGrade}</t>
   </si>
   <si>
-    <t>1. Ethiopia - Reassessment Form School</t>
-  </si>
-  <si>
     <t>c_school_code</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_1_school_202105</t>
-  </si>
-  <si>
     <t>. &gt; 99 and . &lt; 1000</t>
   </si>
   <si>
@@ -2169,6 +2163,21 @@
   </si>
   <si>
     <t>c_school_code_other</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{10}$')</t>
+  </si>
+  <si>
+    <t>The phone number is restricted to 10 digits</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_1_school_202105_V2</t>
+  </si>
+  <si>
+    <t>202105_V2</t>
+  </si>
+  <si>
+    <t>1. Ethiopia - Reassessment Form School V2</t>
   </si>
 </sst>
 </file>
@@ -3428,32 +3437,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="43.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="43.29296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.29296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5859375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.29296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1171875" style="1"/>
+    <col min="13" max="13" width="14.703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3527,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="11"/>
@@ -3533,7 +3542,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -3598,7 +3607,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3666,21 +3675,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>696</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>692</v>
@@ -3689,12 +3698,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>102</v>
@@ -3706,21 +3715,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>696</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>695</v>
@@ -3729,7 +3738,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3743,9 +3752,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>110</v>
@@ -3753,11 +3762,17 @@
       <c r="C18" s="37" t="s">
         <v>13</v>
       </c>
+      <c r="F18" s="37" t="s">
+        <v>708</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>709</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
@@ -3771,7 +3786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3814,7 +3829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3828,7 +3843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3884,7 +3899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3898,7 +3913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3927,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3926,7 +3941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -3946,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -4002,7 +4017,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -4016,7 +4031,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -4058,7 +4073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4078,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="43" x14ac:dyDescent="0.5">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4093,7 +4108,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
@@ -4107,7 +4122,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -4121,7 +4136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -4135,7 +4150,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
@@ -4149,7 +4164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -4163,7 +4178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
@@ -4177,7 +4192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
@@ -4205,7 +4220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>172</v>
       </c>
@@ -4222,7 +4237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -4239,7 +4254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="43" x14ac:dyDescent="0.5">
       <c r="A51" s="7" t="s">
         <v>2</v>
       </c>
@@ -4253,7 +4268,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>178</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="43" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -4281,7 +4296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
@@ -4295,7 +4310,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
@@ -4309,7 +4324,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -4323,7 +4338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>153</v>
       </c>
@@ -4337,7 +4352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>200</v>
       </c>
@@ -4351,7 +4366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>213</v>
       </c>
@@ -4365,7 +4380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -4393,7 +4408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>221</v>
       </c>
@@ -4407,7 +4422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>227</v>
       </c>
@@ -4421,7 +4436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -4435,7 +4450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>234</v>
       </c>
@@ -4449,7 +4464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
@@ -4463,10 +4478,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="43" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4495,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -4494,7 +4509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>241</v>
       </c>
@@ -4511,7 +4526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>153</v>
       </c>
@@ -4545,7 +4560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>256</v>
       </c>
@@ -4562,7 +4577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -4597,7 +4612,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
         <v>264</v>
       </c>
@@ -4611,7 +4626,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
         <v>270</v>
       </c>
@@ -4625,7 +4640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>276</v>
       </c>
@@ -4639,7 +4654,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
         <v>324</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
         <v>327</v>
       </c>
@@ -4962,16 +4977,16 @@
       <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="28" style="14" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.41015625" style="14" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>111</v>
       </c>
@@ -4988,7 +5003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -4999,7 +5014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -5010,7 +5025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -5021,7 +5036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
@@ -5043,7 +5058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -5065,7 +5080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
@@ -5076,12 +5091,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="15" t="s">
         <v>143</v>
       </c>
@@ -5092,7 +5107,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="15" t="s">
         <v>143</v>
       </c>
@@ -5103,7 +5118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="15" t="s">
         <v>143</v>
       </c>
@@ -5114,7 +5129,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="15" t="s">
         <v>143</v>
       </c>
@@ -5125,7 +5140,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
         <v>143</v>
       </c>
@@ -5136,7 +5151,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="15" t="s">
         <v>143</v>
       </c>
@@ -5147,7 +5162,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="15" t="s">
         <v>143</v>
       </c>
@@ -5158,7 +5173,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="15" t="s">
         <v>143</v>
       </c>
@@ -5169,12 +5184,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="24" t="s">
         <v>154</v>
       </c>
@@ -5185,7 +5200,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="24" t="s">
         <v>154</v>
       </c>
@@ -5196,12 +5211,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="15" t="s">
         <v>160</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="15" t="s">
         <v>160</v>
       </c>
@@ -5223,7 +5238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="15" t="s">
         <v>160</v>
       </c>
@@ -5234,11 +5249,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
         <v>173</v>
       </c>
@@ -5249,7 +5264,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="15" t="s">
         <v>173</v>
       </c>
@@ -5260,7 +5275,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="15" t="s">
         <v>173</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="15" t="s">
         <v>173</v>
       </c>
@@ -5282,7 +5297,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="15" t="s">
         <v>173</v>
       </c>
@@ -5304,16 +5319,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="15" t="s">
         <v>179</v>
       </c>
@@ -5324,7 +5339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="15" t="s">
         <v>179</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="15" t="s">
         <v>179</v>
       </c>
@@ -5346,7 +5361,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="15" t="s">
         <v>179</v>
       </c>
@@ -5357,7 +5372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="15" t="s">
         <v>179</v>
       </c>
@@ -5368,7 +5383,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="15" t="s">
         <v>179</v>
       </c>
@@ -5379,7 +5394,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="15" t="s">
         <v>179</v>
       </c>
@@ -5390,11 +5405,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="13" t="s">
         <v>195</v>
       </c>
@@ -5405,7 +5420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="13" t="s">
         <v>195</v>
       </c>
@@ -5416,7 +5431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="13" t="s">
         <v>195</v>
       </c>
@@ -5427,11 +5442,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="15" t="s">
         <v>201</v>
       </c>
@@ -5442,7 +5457,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="15" t="s">
         <v>201</v>
       </c>
@@ -5453,7 +5468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="15" t="s">
         <v>201</v>
       </c>
@@ -5464,7 +5479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="15" t="s">
         <v>201</v>
       </c>
@@ -5475,11 +5490,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="15" t="s">
         <v>214</v>
       </c>
@@ -5490,7 +5505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="15" t="s">
         <v>214</v>
       </c>
@@ -5501,7 +5516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="15" t="s">
         <v>214</v>
       </c>
@@ -5512,11 +5527,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="15" t="s">
         <v>222</v>
       </c>
@@ -5527,7 +5542,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="15" t="s">
         <v>222</v>
       </c>
@@ -5538,7 +5553,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="15" t="s">
         <v>222</v>
       </c>
@@ -5549,11 +5564,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="15" t="s">
         <v>228</v>
       </c>
@@ -5564,7 +5579,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="15" t="s">
         <v>228</v>
       </c>
@@ -5575,7 +5590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="15" t="s">
         <v>228</v>
       </c>
@@ -5586,11 +5601,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="15" t="s">
         <v>235</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="15" t="s">
         <v>235</v>
       </c>
@@ -5612,7 +5627,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="15" t="s">
         <v>235</v>
       </c>
@@ -5623,11 +5638,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="15" t="s">
         <v>242</v>
       </c>
@@ -5638,7 +5653,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="15" t="s">
         <v>242</v>
       </c>
@@ -5649,7 +5664,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="15" t="s">
         <v>242</v>
       </c>
@@ -5660,7 +5675,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="15" t="s">
         <v>242</v>
       </c>
@@ -5671,11 +5686,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="32"/>
       <c r="B73" s="33"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="15" t="s">
         <v>257</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="15" t="s">
         <v>257</v>
       </c>
@@ -5697,7 +5712,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="15" t="s">
         <v>257</v>
       </c>
@@ -5708,7 +5723,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="15" t="s">
         <v>257</v>
       </c>
@@ -5719,7 +5734,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="15" t="s">
         <v>257</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="15" t="s">
         <v>257</v>
       </c>
@@ -5741,11 +5756,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="15" t="s">
         <v>268</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="15" t="s">
         <v>268</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="15" t="s">
         <v>268</v>
       </c>
@@ -5778,7 +5793,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="15" t="s">
         <v>268</v>
       </c>
@@ -5789,11 +5804,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="15" t="s">
         <v>272</v>
       </c>
@@ -5804,7 +5819,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="15" t="s">
         <v>272</v>
       </c>
@@ -5815,7 +5830,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="15" t="s">
         <v>272</v>
       </c>
@@ -5826,11 +5841,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="15" t="s">
         <v>278</v>
       </c>
@@ -5841,7 +5856,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="15" t="s">
         <v>278</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="15" t="s">
         <v>278</v>
       </c>
@@ -5863,7 +5878,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="15" t="s">
         <v>278</v>
       </c>
@@ -5874,7 +5889,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97" s="14" t="s">
         <v>112</v>
       </c>
@@ -5887,7 +5902,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="14" t="s">
         <v>112</v>
       </c>
@@ -5900,7 +5915,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="14" t="s">
         <v>112</v>
       </c>
@@ -5913,7 +5928,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" s="14" t="s">
         <v>112</v>
       </c>
@@ -5926,12 +5941,12 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="14" t="s">
         <v>113</v>
       </c>
@@ -5946,7 +5961,7 @@
       </c>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="14" t="s">
         <v>113</v>
       </c>
@@ -5961,7 +5976,7 @@
       </c>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="14" t="s">
         <v>113</v>
       </c>
@@ -5976,7 +5991,7 @@
       </c>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105" s="14" t="s">
         <v>113</v>
       </c>
@@ -5991,7 +6006,7 @@
       </c>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" s="14" t="s">
         <v>113</v>
       </c>
@@ -6006,7 +6021,7 @@
       </c>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107" s="14" t="s">
         <v>113</v>
       </c>
@@ -6021,7 +6036,7 @@
       </c>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A108" s="14" t="s">
         <v>113</v>
       </c>
@@ -6036,7 +6051,7 @@
       </c>
       <c r="E108" s="14"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A109" s="14" t="s">
         <v>113</v>
       </c>
@@ -6051,7 +6066,7 @@
       </c>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A110" s="14" t="s">
         <v>113</v>
       </c>
@@ -6066,7 +6081,7 @@
       </c>
       <c r="E110" s="14"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A111" s="14" t="s">
         <v>113</v>
       </c>
@@ -6081,7 +6096,7 @@
       </c>
       <c r="E111" s="14"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A112" s="14" t="s">
         <v>113</v>
       </c>
@@ -6096,7 +6111,7 @@
       </c>
       <c r="E112" s="14"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A113" s="14" t="s">
         <v>113</v>
       </c>
@@ -6111,7 +6126,7 @@
       </c>
       <c r="E113" s="14"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A114" s="14" t="s">
         <v>113</v>
       </c>
@@ -6126,7 +6141,7 @@
       </c>
       <c r="E114" s="14"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A115" s="14" t="s">
         <v>113</v>
       </c>
@@ -6141,7 +6156,7 @@
       </c>
       <c r="E115" s="14"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A116" s="14" t="s">
         <v>113</v>
       </c>
@@ -6156,7 +6171,7 @@
       </c>
       <c r="E116" s="14"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A117" s="14" t="s">
         <v>113</v>
       </c>
@@ -6171,7 +6186,7 @@
       </c>
       <c r="E117" s="14"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A118" s="14" t="s">
         <v>113</v>
       </c>
@@ -6186,7 +6201,7 @@
       </c>
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A119" s="14" t="s">
         <v>113</v>
       </c>
@@ -6201,7 +6216,7 @@
       </c>
       <c r="E119" s="14"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A120" s="14" t="s">
         <v>113</v>
       </c>
@@ -6216,7 +6231,7 @@
       </c>
       <c r="E120" s="14"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A121" s="14" t="s">
         <v>113</v>
       </c>
@@ -6231,7 +6246,7 @@
       </c>
       <c r="E121" s="14"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A122" s="14" t="s">
         <v>113</v>
       </c>
@@ -6246,7 +6261,7 @@
       </c>
       <c r="E122" s="14"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A123" s="14" t="s">
         <v>113</v>
       </c>
@@ -6261,7 +6276,7 @@
       </c>
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A124" s="14" t="s">
         <v>113</v>
       </c>
@@ -6276,7 +6291,7 @@
       </c>
       <c r="E124" s="14"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A125" s="14" t="s">
         <v>113</v>
       </c>
@@ -6291,7 +6306,7 @@
       </c>
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A126" s="14" t="s">
         <v>113</v>
       </c>
@@ -6306,7 +6321,7 @@
       </c>
       <c r="E126" s="14"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A127" s="14" t="s">
         <v>113</v>
       </c>
@@ -6321,7 +6336,7 @@
       </c>
       <c r="E127" s="14"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A128" s="14" t="s">
         <v>113</v>
       </c>
@@ -6336,7 +6351,7 @@
       </c>
       <c r="E128" s="14"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A129" s="14" t="s">
         <v>113</v>
       </c>
@@ -6351,7 +6366,7 @@
       </c>
       <c r="E129" s="14"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A130" s="14" t="s">
         <v>113</v>
       </c>
@@ -6366,7 +6381,7 @@
       </c>
       <c r="E130" s="14"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A131" s="14" t="s">
         <v>113</v>
       </c>
@@ -6381,7 +6396,7 @@
       </c>
       <c r="E131" s="14"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A132" s="14" t="s">
         <v>113</v>
       </c>
@@ -6396,7 +6411,7 @@
       </c>
       <c r="E132" s="14"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A133" s="14" t="s">
         <v>113</v>
       </c>
@@ -6411,7 +6426,7 @@
       </c>
       <c r="E133" s="14"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A134" s="14" t="s">
         <v>113</v>
       </c>
@@ -6426,7 +6441,7 @@
       </c>
       <c r="E134" s="14"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A135" s="14" t="s">
         <v>113</v>
       </c>
@@ -6441,7 +6456,7 @@
       </c>
       <c r="E135" s="14"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A136" s="14" t="s">
         <v>113</v>
       </c>
@@ -6456,7 +6471,7 @@
       </c>
       <c r="E136" s="14"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A137" s="14" t="s">
         <v>113</v>
       </c>
@@ -6471,7 +6486,7 @@
       </c>
       <c r="E137" s="14"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A138" s="14" t="s">
         <v>113</v>
       </c>
@@ -6486,7 +6501,7 @@
       </c>
       <c r="E138" s="14"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A139" s="14" t="s">
         <v>113</v>
       </c>
@@ -6501,7 +6516,7 @@
       </c>
       <c r="E139" s="14"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A140" s="14" t="s">
         <v>113</v>
       </c>
@@ -6516,7 +6531,7 @@
       </c>
       <c r="E140" s="14"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A141" s="14" t="s">
         <v>113</v>
       </c>
@@ -6531,7 +6546,7 @@
       </c>
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A142" s="14" t="s">
         <v>113</v>
       </c>
@@ -6546,7 +6561,7 @@
       </c>
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A143" s="14" t="s">
         <v>113</v>
       </c>
@@ -6561,7 +6576,7 @@
       </c>
       <c r="E143" s="14"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A144" s="14" t="s">
         <v>113</v>
       </c>
@@ -6576,7 +6591,7 @@
       </c>
       <c r="E144" s="14"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A145" s="14" t="s">
         <v>113</v>
       </c>
@@ -6591,7 +6606,7 @@
       </c>
       <c r="E145" s="14"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A146" s="14" t="s">
         <v>113</v>
       </c>
@@ -6606,7 +6621,7 @@
       </c>
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A147" s="14" t="s">
         <v>113</v>
       </c>
@@ -6621,7 +6636,7 @@
       </c>
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A148" s="14" t="s">
         <v>113</v>
       </c>
@@ -6636,7 +6651,7 @@
       </c>
       <c r="E148" s="14"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A149" s="14" t="s">
         <v>113</v>
       </c>
@@ -6651,7 +6666,7 @@
       </c>
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A150" s="14" t="s">
         <v>113</v>
       </c>
@@ -6666,7 +6681,7 @@
       </c>
       <c r="E150" s="14"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A151" s="14" t="s">
         <v>113</v>
       </c>
@@ -6681,7 +6696,7 @@
       </c>
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A152" s="14" t="s">
         <v>113</v>
       </c>
@@ -6696,7 +6711,7 @@
       </c>
       <c r="E152" s="14"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A153" s="14" t="s">
         <v>113</v>
       </c>
@@ -6711,7 +6726,7 @@
       </c>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A154" s="14" t="s">
         <v>113</v>
       </c>
@@ -6726,7 +6741,7 @@
       </c>
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A155" s="14" t="s">
         <v>113</v>
       </c>
@@ -6741,7 +6756,7 @@
       </c>
       <c r="E155" s="14"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A156" s="14" t="s">
         <v>113</v>
       </c>
@@ -6756,7 +6771,7 @@
       </c>
       <c r="E156" s="14"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A157" s="14" t="s">
         <v>113</v>
       </c>
@@ -6771,7 +6786,7 @@
       </c>
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A158" s="14" t="s">
         <v>113</v>
       </c>
@@ -6786,7 +6801,7 @@
       </c>
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A159" s="14" t="s">
         <v>113</v>
       </c>
@@ -6801,7 +6816,7 @@
       </c>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A160" s="14" t="s">
         <v>113</v>
       </c>
@@ -6816,7 +6831,7 @@
       </c>
       <c r="E160" s="14"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A161" s="14" t="s">
         <v>113</v>
       </c>
@@ -6831,7 +6846,7 @@
       </c>
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A162" s="14" t="s">
         <v>113</v>
       </c>
@@ -6846,7 +6861,7 @@
       </c>
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A163" s="14" t="s">
         <v>113</v>
       </c>
@@ -6861,7 +6876,7 @@
       </c>
       <c r="E163" s="14"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A164" s="14" t="s">
         <v>113</v>
       </c>
@@ -6876,7 +6891,7 @@
       </c>
       <c r="E164" s="14"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A165" s="14" t="s">
         <v>113</v>
       </c>
@@ -6891,7 +6906,7 @@
       </c>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A166" s="14" t="s">
         <v>113</v>
       </c>
@@ -6906,7 +6921,7 @@
       </c>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A167" s="14" t="s">
         <v>113</v>
       </c>
@@ -6921,7 +6936,7 @@
       </c>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A168" s="14" t="s">
         <v>113</v>
       </c>
@@ -6936,7 +6951,7 @@
       </c>
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A169" s="14" t="s">
         <v>113</v>
       </c>
@@ -6951,7 +6966,7 @@
       </c>
       <c r="E169" s="14"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A170" s="14" t="s">
         <v>113</v>
       </c>
@@ -6966,7 +6981,7 @@
       </c>
       <c r="E170" s="14"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A171" s="14" t="s">
         <v>113</v>
       </c>
@@ -6981,7 +6996,7 @@
       </c>
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A172" s="14" t="s">
         <v>113</v>
       </c>
@@ -6996,7 +7011,7 @@
       </c>
       <c r="E172" s="14"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A173" s="14" t="s">
         <v>113</v>
       </c>
@@ -7011,7 +7026,7 @@
       </c>
       <c r="E173" s="14"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A174" s="14" t="s">
         <v>113</v>
       </c>
@@ -7026,7 +7041,7 @@
       </c>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A175" s="14" t="s">
         <v>113</v>
       </c>
@@ -7041,7 +7056,7 @@
       </c>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A176" s="14" t="s">
         <v>113</v>
       </c>
@@ -7056,7 +7071,7 @@
       </c>
       <c r="E176" s="14"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A177" s="14" t="s">
         <v>113</v>
       </c>
@@ -7071,7 +7086,7 @@
       </c>
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A178" s="14" t="s">
         <v>113</v>
       </c>
@@ -7086,7 +7101,7 @@
       </c>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A179" s="14" t="s">
         <v>113</v>
       </c>
@@ -7101,7 +7116,7 @@
       </c>
       <c r="E179" s="14"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A180" s="14" t="s">
         <v>113</v>
       </c>
@@ -7116,7 +7131,7 @@
       </c>
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A181" s="14" t="s">
         <v>113</v>
       </c>
@@ -7131,7 +7146,7 @@
       </c>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A182" s="14" t="s">
         <v>113</v>
       </c>
@@ -7146,7 +7161,7 @@
       </c>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A183" s="14" t="s">
         <v>113</v>
       </c>
@@ -7161,7 +7176,7 @@
       </c>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A184" s="14" t="s">
         <v>113</v>
       </c>
@@ -7176,7 +7191,7 @@
       </c>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A185" s="14" t="s">
         <v>113</v>
       </c>
@@ -7191,7 +7206,7 @@
       </c>
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A186" s="14" t="s">
         <v>113</v>
       </c>
@@ -7206,7 +7221,7 @@
       </c>
       <c r="E186" s="14"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A187" s="14" t="s">
         <v>113</v>
       </c>
@@ -7221,7 +7236,7 @@
       </c>
       <c r="E187" s="14"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A188" s="14" t="s">
         <v>113</v>
       </c>
@@ -7236,7 +7251,7 @@
       </c>
       <c r="E188" s="14"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A189" s="14" t="s">
         <v>113</v>
       </c>
@@ -7251,7 +7266,7 @@
       </c>
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A190" s="14" t="s">
         <v>113</v>
       </c>
@@ -7266,7 +7281,7 @@
       </c>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A191" s="14" t="s">
         <v>113</v>
       </c>
@@ -7281,7 +7296,7 @@
       </c>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A192" s="14" t="s">
         <v>113</v>
       </c>
@@ -7296,7 +7311,7 @@
       </c>
       <c r="E192" s="14"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A193" s="14" t="s">
         <v>113</v>
       </c>
@@ -7311,7 +7326,7 @@
       </c>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A194" s="14" t="s">
         <v>113</v>
       </c>
@@ -7326,7 +7341,7 @@
       </c>
       <c r="E194" s="14"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A195" s="14" t="s">
         <v>113</v>
       </c>
@@ -7341,7 +7356,7 @@
       </c>
       <c r="E195" s="14"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A196" s="14" t="s">
         <v>113</v>
       </c>
@@ -7356,7 +7371,7 @@
       </c>
       <c r="E196" s="14"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A197" s="14" t="s">
         <v>113</v>
       </c>
@@ -7371,7 +7386,7 @@
       </c>
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A198" s="14" t="s">
         <v>113</v>
       </c>
@@ -7386,7 +7401,7 @@
       </c>
       <c r="E198" s="14"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A199" s="14" t="s">
         <v>113</v>
       </c>
@@ -7401,7 +7416,7 @@
       </c>
       <c r="E199" s="14"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A200" s="14" t="s">
         <v>113</v>
       </c>
@@ -7416,7 +7431,7 @@
       </c>
       <c r="E200" s="14"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A201" s="14" t="s">
         <v>113</v>
       </c>
@@ -7431,7 +7446,7 @@
       </c>
       <c r="E201" s="14"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A202" s="14" t="s">
         <v>113</v>
       </c>
@@ -7446,7 +7461,7 @@
       </c>
       <c r="E202" s="14"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A203" s="14" t="s">
         <v>113</v>
       </c>
@@ -7461,7 +7476,7 @@
       </c>
       <c r="E203" s="14"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A204" s="14" t="s">
         <v>113</v>
       </c>
@@ -7476,7 +7491,7 @@
       </c>
       <c r="E204" s="14"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A205" s="14" t="s">
         <v>113</v>
       </c>
@@ -7491,7 +7506,7 @@
       </c>
       <c r="E205" s="14"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A206" s="14" t="s">
         <v>113</v>
       </c>
@@ -7506,7 +7521,7 @@
       </c>
       <c r="E206" s="14"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A207" s="14" t="s">
         <v>113</v>
       </c>
@@ -7521,7 +7536,7 @@
       </c>
       <c r="E207" s="14"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A208" s="14" t="s">
         <v>113</v>
       </c>
@@ -7536,7 +7551,7 @@
       </c>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A209" s="14" t="s">
         <v>113</v>
       </c>
@@ -7551,7 +7566,7 @@
       </c>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A210" s="14" t="s">
         <v>113</v>
       </c>
@@ -7566,7 +7581,7 @@
       </c>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A211" s="14" t="s">
         <v>113</v>
       </c>
@@ -7581,7 +7596,7 @@
       </c>
       <c r="E211" s="14"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A212" s="14" t="s">
         <v>113</v>
       </c>
@@ -7596,7 +7611,7 @@
       </c>
       <c r="E212" s="14"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A213" s="14" t="s">
         <v>113</v>
       </c>
@@ -7611,7 +7626,7 @@
       </c>
       <c r="E213" s="14"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A214" s="14" t="s">
         <v>113</v>
       </c>
@@ -7626,7 +7641,7 @@
       </c>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A215" s="14" t="s">
         <v>113</v>
       </c>
@@ -7641,7 +7656,7 @@
       </c>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A216" s="14" t="s">
         <v>113</v>
       </c>
@@ -7656,7 +7671,7 @@
       </c>
       <c r="E216" s="14"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A217" s="14" t="s">
         <v>113</v>
       </c>
@@ -7671,7 +7686,7 @@
       </c>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A218" s="14" t="s">
         <v>113</v>
       </c>
@@ -7686,7 +7701,7 @@
       </c>
       <c r="E218" s="14"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A219" s="14" t="s">
         <v>113</v>
       </c>
@@ -7701,7 +7716,7 @@
       </c>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A220" s="14" t="s">
         <v>113</v>
       </c>
@@ -7716,7 +7731,7 @@
       </c>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A221" s="14" t="s">
         <v>113</v>
       </c>
@@ -7731,7 +7746,7 @@
       </c>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A222" s="14" t="s">
         <v>113</v>
       </c>
@@ -7746,7 +7761,7 @@
       </c>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A223" s="14" t="s">
         <v>113</v>
       </c>
@@ -7761,7 +7776,7 @@
       </c>
       <c r="E223" s="14"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A224" s="14" t="s">
         <v>113</v>
       </c>
@@ -7776,7 +7791,7 @@
       </c>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A225" s="14" t="s">
         <v>113</v>
       </c>
@@ -7791,7 +7806,7 @@
       </c>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A226" s="14" t="s">
         <v>113</v>
       </c>
@@ -7806,7 +7821,7 @@
       </c>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A227" s="14" t="s">
         <v>113</v>
       </c>
@@ -7821,7 +7836,7 @@
       </c>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A228" s="14" t="s">
         <v>113</v>
       </c>
@@ -7836,7 +7851,7 @@
       </c>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A229" s="14" t="s">
         <v>113</v>
       </c>
@@ -7851,7 +7866,7 @@
       </c>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A230" s="14" t="s">
         <v>113</v>
       </c>
@@ -7866,7 +7881,7 @@
       </c>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A231" s="14" t="s">
         <v>113</v>
       </c>
@@ -7881,7 +7896,7 @@
       </c>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A232" s="14" t="s">
         <v>113</v>
       </c>
@@ -7896,7 +7911,7 @@
       </c>
       <c r="E232" s="14"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A233" s="14" t="s">
         <v>113</v>
       </c>
@@ -7911,7 +7926,7 @@
       </c>
       <c r="E233" s="14"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A234" s="14" t="s">
         <v>113</v>
       </c>
@@ -7926,7 +7941,7 @@
       </c>
       <c r="E234" s="14"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A235" s="14" t="s">
         <v>113</v>
       </c>
@@ -7941,7 +7956,7 @@
       </c>
       <c r="E235" s="14"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A236" s="14" t="s">
         <v>113</v>
       </c>
@@ -7956,7 +7971,7 @@
       </c>
       <c r="E236" s="14"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A237" s="14" t="s">
         <v>113</v>
       </c>
@@ -7971,7 +7986,7 @@
       </c>
       <c r="E237" s="14"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A238" s="14" t="s">
         <v>113</v>
       </c>
@@ -7986,7 +8001,7 @@
       </c>
       <c r="E238" s="14"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A239" s="14" t="s">
         <v>113</v>
       </c>
@@ -8001,7 +8016,7 @@
       </c>
       <c r="E239" s="14"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A240" s="14" t="s">
         <v>113</v>
       </c>
@@ -8016,7 +8031,7 @@
       </c>
       <c r="E240" s="14"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A241" s="14" t="s">
         <v>113</v>
       </c>
@@ -8031,12 +8046,12 @@
       </c>
       <c r="E241" s="14"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
       <c r="E242" s="14"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A243" s="14" t="s">
         <v>114</v>
       </c>
@@ -8051,7 +8066,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A244" s="14" t="s">
         <v>114</v>
       </c>
@@ -8066,7 +8081,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A245" s="14" t="s">
         <v>114</v>
       </c>
@@ -8081,7 +8096,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A246" s="14" t="s">
         <v>114</v>
       </c>
@@ -8096,7 +8111,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A247" s="14" t="s">
         <v>114</v>
       </c>
@@ -8111,7 +8126,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A248" s="14" t="s">
         <v>114</v>
       </c>
@@ -8126,7 +8141,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A249" s="14" t="s">
         <v>114</v>
       </c>
@@ -8141,7 +8156,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A250" s="14" t="s">
         <v>114</v>
       </c>
@@ -8156,7 +8171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A251" s="14" t="s">
         <v>114</v>
       </c>
@@ -8171,7 +8186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A252" s="14" t="s">
         <v>114</v>
       </c>
@@ -8186,7 +8201,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A253" s="14" t="s">
         <v>114</v>
       </c>
@@ -8201,7 +8216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A254" s="14" t="s">
         <v>114</v>
       </c>
@@ -8216,7 +8231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A255" s="14" t="s">
         <v>114</v>
       </c>
@@ -8231,7 +8246,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A256" s="14" t="s">
         <v>114</v>
       </c>
@@ -8246,7 +8261,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A257" s="14" t="s">
         <v>114</v>
       </c>
@@ -8261,7 +8276,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A258" s="14" t="s">
         <v>114</v>
       </c>
@@ -8276,7 +8291,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A259" s="14" t="s">
         <v>114</v>
       </c>
@@ -8291,7 +8306,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A260" s="14" t="s">
         <v>114</v>
       </c>
@@ -8306,7 +8321,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A261" s="14" t="s">
         <v>114</v>
       </c>
@@ -8321,7 +8336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A262" s="14" t="s">
         <v>114</v>
       </c>
@@ -8336,7 +8351,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A263" s="14" t="s">
         <v>114</v>
       </c>
@@ -8351,7 +8366,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A264" s="14" t="s">
         <v>114</v>
       </c>
@@ -8366,7 +8381,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A265" s="14" t="s">
         <v>114</v>
       </c>
@@ -8381,7 +8396,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A266" s="14" t="s">
         <v>114</v>
       </c>
@@ -8396,7 +8411,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A267" s="14" t="s">
         <v>114</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A268" s="14" t="s">
         <v>114</v>
       </c>
@@ -8426,7 +8441,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A269" s="14" t="s">
         <v>114</v>
       </c>
@@ -8441,7 +8456,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A270" s="14" t="s">
         <v>114</v>
       </c>
@@ -8456,7 +8471,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A271" s="14" t="s">
         <v>114</v>
       </c>
@@ -8471,7 +8486,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A272" s="14" t="s">
         <v>114</v>
       </c>
@@ -8486,7 +8501,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A273" s="14" t="s">
         <v>114</v>
       </c>
@@ -8501,7 +8516,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A274" s="14" t="s">
         <v>114</v>
       </c>
@@ -8516,7 +8531,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A275" s="14" t="s">
         <v>114</v>
       </c>
@@ -8531,7 +8546,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A276" s="14" t="s">
         <v>114</v>
       </c>
@@ -8546,7 +8561,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A277" s="14" t="s">
         <v>114</v>
       </c>
@@ -8561,7 +8576,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A278" s="14" t="s">
         <v>114</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A279" s="14" t="s">
         <v>114</v>
       </c>
@@ -8591,7 +8606,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A280" s="14" t="s">
         <v>114</v>
       </c>
@@ -8606,7 +8621,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A281" s="14" t="s">
         <v>114</v>
       </c>
@@ -8621,7 +8636,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A282" s="14" t="s">
         <v>114</v>
       </c>
@@ -8636,7 +8651,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A283" s="14" t="s">
         <v>114</v>
       </c>
@@ -8651,7 +8666,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A284" s="14" t="s">
         <v>114</v>
       </c>
@@ -8666,7 +8681,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A285" s="14" t="s">
         <v>114</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A286" s="14" t="s">
         <v>114</v>
       </c>
@@ -8696,7 +8711,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A287" s="14" t="s">
         <v>114</v>
       </c>
@@ -8711,7 +8726,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A288" s="14" t="s">
         <v>114</v>
       </c>
@@ -8726,7 +8741,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A289" s="14" t="s">
         <v>114</v>
       </c>
@@ -8741,7 +8756,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A290" s="14" t="s">
         <v>114</v>
       </c>
@@ -8756,7 +8771,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A291" s="14" t="s">
         <v>114</v>
       </c>
@@ -8771,7 +8786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A292" s="14" t="s">
         <v>114</v>
       </c>
@@ -8786,7 +8801,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A293" s="14" t="s">
         <v>114</v>
       </c>
@@ -8801,7 +8816,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A294" s="14" t="s">
         <v>114</v>
       </c>
@@ -8816,7 +8831,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A295" s="14" t="s">
         <v>114</v>
       </c>
@@ -8831,7 +8846,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A296" s="14" t="s">
         <v>114</v>
       </c>
@@ -8846,7 +8861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A297" s="14" t="s">
         <v>114</v>
       </c>
@@ -8861,7 +8876,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A298" s="14" t="s">
         <v>114</v>
       </c>
@@ -8876,7 +8891,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A299" s="14" t="s">
         <v>114</v>
       </c>
@@ -8891,7 +8906,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A300" s="14" t="s">
         <v>114</v>
       </c>
@@ -8906,7 +8921,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A301" s="14" t="s">
         <v>114</v>
       </c>
@@ -8921,7 +8936,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A302" s="14" t="s">
         <v>114</v>
       </c>
@@ -8936,7 +8951,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A303" s="14" t="s">
         <v>114</v>
       </c>
@@ -8951,7 +8966,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A304" s="14" t="s">
         <v>114</v>
       </c>
@@ -8966,7 +8981,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A305" s="14" t="s">
         <v>114</v>
       </c>
@@ -8981,7 +8996,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A306" s="14" t="s">
         <v>114</v>
       </c>
@@ -8996,7 +9011,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A307" s="14" t="s">
         <v>114</v>
       </c>
@@ -9011,7 +9026,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A308" s="14" t="s">
         <v>114</v>
       </c>
@@ -9026,7 +9041,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A309" s="14" t="s">
         <v>114</v>
       </c>
@@ -9041,7 +9056,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A310" s="14" t="s">
         <v>114</v>
       </c>
@@ -9056,7 +9071,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A311" s="14" t="s">
         <v>114</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A312" s="14" t="s">
         <v>114</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A313" s="14" t="s">
         <v>114</v>
       </c>
@@ -9101,7 +9116,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A314" s="14" t="s">
         <v>114</v>
       </c>
@@ -9116,7 +9131,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A315" s="14" t="s">
         <v>114</v>
       </c>
@@ -9131,7 +9146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A316" s="14" t="s">
         <v>114</v>
       </c>
@@ -9146,7 +9161,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A317" s="14" t="s">
         <v>114</v>
       </c>
@@ -9161,7 +9176,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A318" s="14" t="s">
         <v>114</v>
       </c>
@@ -9176,7 +9191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A319" s="14" t="s">
         <v>114</v>
       </c>
@@ -9191,7 +9206,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A320" s="14" t="s">
         <v>114</v>
       </c>
@@ -9206,7 +9221,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A321" s="14" t="s">
         <v>114</v>
       </c>
@@ -9221,7 +9236,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A322" s="14" t="s">
         <v>114</v>
       </c>
@@ -9236,7 +9251,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A323" s="14" t="s">
         <v>114</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A324" s="14" t="s">
         <v>114</v>
       </c>
@@ -9266,7 +9281,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A325" s="14" t="s">
         <v>114</v>
       </c>
@@ -9281,7 +9296,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A326" s="14" t="s">
         <v>114</v>
       </c>
@@ -9296,7 +9311,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A327" s="14" t="s">
         <v>114</v>
       </c>
@@ -9311,7 +9326,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A328" s="14" t="s">
         <v>114</v>
       </c>
@@ -9326,7 +9341,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A329" s="14" t="s">
         <v>114</v>
       </c>
@@ -9341,7 +9356,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A330" s="14" t="s">
         <v>114</v>
       </c>
@@ -9356,7 +9371,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A331" s="14" t="s">
         <v>114</v>
       </c>
@@ -9371,7 +9386,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A332" s="14" t="s">
         <v>114</v>
       </c>
@@ -9386,7 +9401,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A333" s="14" t="s">
         <v>114</v>
       </c>
@@ -9401,7 +9416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A334" s="14" t="s">
         <v>114</v>
       </c>
@@ -9416,7 +9431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A335" s="14" t="s">
         <v>114</v>
       </c>
@@ -9431,7 +9446,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A336" s="14" t="s">
         <v>114</v>
       </c>
@@ -9446,7 +9461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A337" s="14" t="s">
         <v>114</v>
       </c>
@@ -9461,7 +9476,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A338" s="14" t="s">
         <v>114</v>
       </c>
@@ -9476,7 +9491,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A339" s="14" t="s">
         <v>114</v>
       </c>
@@ -9491,7 +9506,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A340" s="14" t="s">
         <v>114</v>
       </c>
@@ -9506,7 +9521,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A341" s="14" t="s">
         <v>114</v>
       </c>
@@ -9521,7 +9536,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A342" s="14" t="s">
         <v>114</v>
       </c>
@@ -9536,7 +9551,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A343" s="14" t="s">
         <v>114</v>
       </c>
@@ -9551,7 +9566,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A344" s="14" t="s">
         <v>114</v>
       </c>
@@ -9566,7 +9581,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A345" s="14" t="s">
         <v>114</v>
       </c>
@@ -9581,7 +9596,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A346" s="14" t="s">
         <v>114</v>
       </c>
@@ -9596,7 +9611,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A347" s="14" t="s">
         <v>114</v>
       </c>
@@ -9611,7 +9626,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A348" s="14" t="s">
         <v>114</v>
       </c>
@@ -9626,7 +9641,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A349" s="14" t="s">
         <v>114</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A350" s="14" t="s">
         <v>114</v>
       </c>
@@ -9656,7 +9671,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A351" s="14" t="s">
         <v>114</v>
       </c>
@@ -9671,7 +9686,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A352" s="14" t="s">
         <v>114</v>
       </c>
@@ -9686,7 +9701,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A353" s="14" t="s">
         <v>114</v>
       </c>
@@ -9701,7 +9716,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A354" s="14" t="s">
         <v>114</v>
       </c>
@@ -9716,7 +9731,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A355" s="14" t="s">
         <v>114</v>
       </c>
@@ -9731,7 +9746,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A356" s="14" t="s">
         <v>114</v>
       </c>
@@ -9746,7 +9761,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A357" s="14" t="s">
         <v>114</v>
       </c>
@@ -9761,7 +9776,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A358" s="14" t="s">
         <v>114</v>
       </c>
@@ -9776,7 +9791,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A359" s="14" t="s">
         <v>114</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A360" s="14" t="s">
         <v>114</v>
       </c>
@@ -9806,7 +9821,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A361" s="14" t="s">
         <v>114</v>
       </c>
@@ -9821,7 +9836,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A362" s="14" t="s">
         <v>114</v>
       </c>
@@ -9836,7 +9851,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A363" s="14" t="s">
         <v>114</v>
       </c>
@@ -9851,7 +9866,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A364" s="14" t="s">
         <v>114</v>
       </c>
@@ -9866,7 +9881,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A365" s="14" t="s">
         <v>114</v>
       </c>
@@ -9881,7 +9896,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A366" s="14" t="s">
         <v>114</v>
       </c>
@@ -9896,7 +9911,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A367" s="14" t="s">
         <v>114</v>
       </c>
@@ -9911,7 +9926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A368" s="14" t="s">
         <v>114</v>
       </c>
@@ -9926,7 +9941,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A369" s="14" t="s">
         <v>114</v>
       </c>
@@ -9941,7 +9956,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A370" s="14" t="s">
         <v>114</v>
       </c>
@@ -9956,7 +9971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A371" s="14" t="s">
         <v>114</v>
       </c>
@@ -9971,7 +9986,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A372" s="14" t="s">
         <v>114</v>
       </c>
@@ -9986,7 +10001,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A373" s="14" t="s">
         <v>114</v>
       </c>
@@ -10001,7 +10016,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A374" s="14" t="s">
         <v>114</v>
       </c>
@@ -10016,7 +10031,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A375" s="14" t="s">
         <v>114</v>
       </c>
@@ -10031,7 +10046,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A376" s="14" t="s">
         <v>114</v>
       </c>
@@ -10046,7 +10061,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A377" s="14" t="s">
         <v>114</v>
       </c>
@@ -10061,7 +10076,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A378" s="14" t="s">
         <v>114</v>
       </c>
@@ -10076,7 +10091,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A379" s="14" t="s">
         <v>114</v>
       </c>
@@ -10091,7 +10106,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A380" s="14" t="s">
         <v>114</v>
       </c>
@@ -10106,7 +10121,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A381" s="14" t="s">
         <v>114</v>
       </c>
@@ -10121,7 +10136,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A382" s="14" t="s">
         <v>114</v>
       </c>
@@ -10136,7 +10151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A383" s="14" t="s">
         <v>114</v>
       </c>
@@ -10151,7 +10166,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A384" s="14" t="s">
         <v>114</v>
       </c>
@@ -10166,7 +10181,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A385" s="14" t="s">
         <v>114</v>
       </c>
@@ -10181,7 +10196,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A386" s="14" t="s">
         <v>114</v>
       </c>
@@ -10196,7 +10211,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A387" s="14" t="s">
         <v>114</v>
       </c>
@@ -10211,7 +10226,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A388" s="14" t="s">
         <v>114</v>
       </c>
@@ -10226,7 +10241,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A389" s="14" t="s">
         <v>114</v>
       </c>
@@ -10241,7 +10256,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A390" s="14" t="s">
         <v>114</v>
       </c>
@@ -10256,7 +10271,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A391" s="14" t="s">
         <v>114</v>
       </c>
@@ -10271,7 +10286,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A392" s="14" t="s">
         <v>114</v>
       </c>
@@ -10286,7 +10301,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A393" s="14" t="s">
         <v>114</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A394" s="14" t="s">
         <v>114</v>
       </c>
@@ -10316,7 +10331,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A395" s="14" t="s">
         <v>114</v>
       </c>
@@ -10331,7 +10346,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A396" s="14" t="s">
         <v>114</v>
       </c>
@@ -10346,7 +10361,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A397" s="14" t="s">
         <v>114</v>
       </c>
@@ -10361,7 +10376,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A398" s="14" t="s">
         <v>114</v>
       </c>
@@ -10376,7 +10391,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A399" s="14" t="s">
         <v>114</v>
       </c>
@@ -10391,7 +10406,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A400" s="14" t="s">
         <v>114</v>
       </c>
@@ -10406,7 +10421,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A401" s="14" t="s">
         <v>114</v>
       </c>
@@ -10421,7 +10436,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A402" s="14" t="s">
         <v>114</v>
       </c>
@@ -10436,7 +10451,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A403" s="14" t="s">
         <v>114</v>
       </c>
@@ -10451,7 +10466,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A404" s="14" t="s">
         <v>114</v>
       </c>
@@ -10466,7 +10481,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A405" s="14" t="s">
         <v>114</v>
       </c>
@@ -10481,7 +10496,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A406" s="14" t="s">
         <v>114</v>
       </c>
@@ -10496,7 +10511,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A407" s="14" t="s">
         <v>114</v>
       </c>
@@ -10511,7 +10526,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A408" s="14" t="s">
         <v>114</v>
       </c>
@@ -10526,7 +10541,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A409" s="14" t="s">
         <v>114</v>
       </c>
@@ -10541,7 +10556,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A410" s="14" t="s">
         <v>114</v>
       </c>
@@ -10556,7 +10571,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A411" s="14" t="s">
         <v>114</v>
       </c>
@@ -10571,7 +10586,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A412" s="40" t="s">
         <v>114</v>
       </c>
@@ -10586,7 +10601,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A413" s="14" t="s">
         <v>114</v>
       </c>
@@ -10601,7 +10616,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A414" s="14" t="s">
         <v>114</v>
       </c>
@@ -10616,7 +10631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A415" s="14" t="s">
         <v>114</v>
       </c>
@@ -10631,7 +10646,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A416" s="14" t="s">
         <v>114</v>
       </c>
@@ -10646,7 +10661,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A417" s="14" t="s">
         <v>114</v>
       </c>
@@ -10661,7 +10676,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A418" s="14" t="s">
         <v>114</v>
       </c>
@@ -10676,7 +10691,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A419" s="14" t="s">
         <v>114</v>
       </c>
@@ -10691,7 +10706,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A420" s="14" t="s">
         <v>114</v>
       </c>
@@ -10706,7 +10721,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A421" s="14" t="s">
         <v>114</v>
       </c>
@@ -10721,7 +10736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A422" s="14" t="s">
         <v>114</v>
       </c>
@@ -10736,7 +10751,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A423" s="14" t="s">
         <v>114</v>
       </c>
@@ -10751,7 +10766,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A424" s="14" t="s">
         <v>114</v>
       </c>
@@ -10766,7 +10781,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A425" s="14" t="s">
         <v>114</v>
       </c>
@@ -10781,7 +10796,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A426" s="14" t="s">
         <v>114</v>
       </c>
@@ -10796,7 +10811,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A427" s="14" t="s">
         <v>114</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A428" s="14" t="s">
         <v>114</v>
       </c>
@@ -10826,7 +10841,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A429" s="14" t="s">
         <v>114</v>
       </c>
@@ -10841,7 +10856,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A430" s="14" t="s">
         <v>114</v>
       </c>
@@ -10856,7 +10871,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A431" s="14" t="s">
         <v>114</v>
       </c>
@@ -10871,7 +10886,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A432" s="14" t="s">
         <v>114</v>
       </c>
@@ -10886,7 +10901,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A433" s="14" t="s">
         <v>114</v>
       </c>
@@ -10901,7 +10916,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A434" s="14" t="s">
         <v>114</v>
       </c>
@@ -10916,7 +10931,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A435" s="14" t="s">
         <v>114</v>
       </c>
@@ -10931,7 +10946,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A436" s="14" t="s">
         <v>114</v>
       </c>
@@ -10946,7 +10961,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A437" s="14" t="s">
         <v>114</v>
       </c>
@@ -10961,7 +10976,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A438" s="14" t="s">
         <v>114</v>
       </c>
@@ -10976,7 +10991,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A439" s="14" t="s">
         <v>114</v>
       </c>
@@ -10991,7 +11006,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A440" s="14" t="s">
         <v>114</v>
       </c>
@@ -11006,7 +11021,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A441" s="14" t="s">
         <v>114</v>
       </c>
@@ -11021,7 +11036,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A442" s="14" t="s">
         <v>114</v>
       </c>
@@ -11036,7 +11051,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A443" s="14" t="s">
         <v>114</v>
       </c>
@@ -11051,7 +11066,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A444" s="14" t="s">
         <v>114</v>
       </c>
@@ -11066,7 +11081,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A445" s="14" t="s">
         <v>114</v>
       </c>
@@ -11081,7 +11096,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A446" s="14" t="s">
         <v>114</v>
       </c>
@@ -11096,7 +11111,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A447" s="14" t="s">
         <v>114</v>
       </c>
@@ -11111,7 +11126,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A448" s="14" t="s">
         <v>114</v>
       </c>
@@ -11126,7 +11141,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A449" s="14" t="s">
         <v>114</v>
       </c>
@@ -11141,7 +11156,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A450" s="14" t="s">
         <v>114</v>
       </c>
@@ -11169,18 +11184,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>330</v>
       </c>
@@ -11194,15 +11209,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2">
-        <v>202105</v>
+        <v>710</v>
+      </c>
+      <c r="C2" t="s">
+        <v>711</v>
       </c>
       <c r="D2" t="s">
         <v>334</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73377D4D-4CFC-40CE-AF52-A035BA7E2460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD216A-98F4-4D67-9A0F-FB4F0D53CEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="723">
   <si>
     <t>label</t>
   </si>
@@ -2129,18 +2129,9 @@
     <t>selected(${c_region}, ‘Somali’)</t>
   </si>
   <si>
-    <t>7.a Record school code</t>
-  </si>
-  <si>
     <t>readonly</t>
   </si>
   <si>
-    <t>${c_boysGrade1}+${c_boysGrade2}+${c_boysGrade3}+${c_boysGrade4}+${c_boysGrade5}+${c_boysGrade6}+${c_boysGrade7}+${c_boysGrade8}</t>
-  </si>
-  <si>
-    <t>${c_girlsGrade1}+${c_girlsGrade2}+${c_girlsGrade3}+${c_girlsGrade4}+${c_girlsGrade5}+${c_girlsGrade6}+${c_girlsGrade7}+${c_girlsGrade8}</t>
-  </si>
-  <si>
     <t>Between 1 and 8 and greater than or equal to lowest grade</t>
   </si>
   <si>
@@ -2165,19 +2156,58 @@
     <t>c_school_code_other</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{10}$')</t>
-  </si>
-  <si>
-    <t>The phone number is restricted to 10 digits</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_1_school_202105_V2</t>
-  </si>
-  <si>
-    <t>202105_V2</t>
-  </si>
-  <si>
-    <t>1. Ethiopia - Reassessment Form School V2</t>
+    <t>1. Ethiopia-Reassessment School Form V3</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>regex(.,'^09[0-9]{8}$')</t>
+  </si>
+  <si>
+    <t>The pattern should be like 09xxxxxxxx</t>
+  </si>
+  <si>
+    <t>The phone number is restricted to 10 digits, starting with 09</t>
+  </si>
+  <si>
+    <t>7. Record school code</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>if(1&gt;=${c_lowestGrade} and 1&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(2&gt;=${c_lowestGrade} and 2&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(3&gt;=${c_lowestGrade} and 3&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(4&gt;=${c_lowestGrade} and 4&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(5&gt;=${c_lowestGrade} and 5&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(6&gt;=${c_lowestGrade} and 6&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(7&gt;=${c_lowestGrade} and 7&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(8&gt;=${c_lowestGrade} and 8&lt;=${c_highestGrade}, true(), false())</t>
+  </si>
+  <si>
+    <t>if(${c_boysGrade1}="",'0', ${c_boysGrade1})+if(${c_boysGrade2}="",'0', ${c_boysGrade2})+if(${c_boysGrade3}="",'0', ${c_boysGrade3})+if(${c_boysGrade4}="",'0', ${c_boysGrade4})+if(${c_boysGrade5}="",'0', ${c_boysGrade5})+if(${c_boysGrade6}="",'0', ${c_boysGrade6})+if(${c_boysGrade7}="",'0', ${c_boysGrade7})+if(${c_boysGrade8}="",'0', ${c_boysGrade8})</t>
+  </si>
+  <si>
+    <t>if(${c_girlsGrade1}="",'0', ${c_girlsGrade1})+if(${c_girlsGrade2}="",'0', ${c_girlsGrade2})+if(${c_girlsGrade3}="",'0', ${c_girlsGrade3})+if(${c_girlsGrade4}="",'0', ${c_girlsGrade4})+if(${c_girlsGrade5}="",'0', ${c_girlsGrade5})+if(${c_girlsGrade6}="",'0', ${c_girlsGrade6})+if(${c_girlsGrade7}="",'0', ${c_girlsGrade7})+if(${c_girlsGrade8}="",'0', ${c_girlsGrade8})</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_1_school_202105_v3</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2514,6 +2544,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3435,13 +3466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3503,34 +3534,42 @@
         <v>93</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="10"/>
@@ -3553,106 +3592,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="J5" s="1" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>688</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>692</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>97</v>
@@ -3660,39 +3693,39 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>710</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>702</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>705</v>
+      <c r="C14" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J14" s="41" t="s">
         <v>97</v>
@@ -3700,13 +3733,19 @@
     </row>
     <row r="15" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>102</v>
+        <v>710</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>702</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>695</v>
@@ -3715,72 +3754,75 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="41" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>708</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>705</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>695</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
+      <c r="G17" s="37" t="s">
+        <v>709</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>709</v>
+      <c r="L17" s="42" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>97</v>
@@ -3788,19 +3830,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>699</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>120</v>
+        <v>698</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>97</v>
@@ -3811,19 +3856,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>701</v>
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>97</v>
@@ -3834,10 +3873,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>97</v>
@@ -3848,10 +3890,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>97</v>
@@ -3862,10 +3907,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>97</v>
@@ -3876,10 +3924,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>97</v>
@@ -3890,10 +3941,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>97</v>
@@ -3904,10 +3958,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>97</v>
@@ -3918,10 +3975,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>97</v>
@@ -3929,36 +3989,39 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>720</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="N29" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>698</v>
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="N30" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
@@ -3966,10 +4029,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>97</v>
@@ -3980,10 +4046,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>97</v>
@@ -3994,10 +4063,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>97</v>
@@ -4008,10 +4080,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>97</v>
@@ -4022,10 +4097,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>97</v>
@@ -4036,10 +4114,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>97</v>
@@ -4050,10 +4131,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>97</v>
@@ -4061,62 +4145,62 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>721</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="N38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+      <c r="A39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N39" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="43" x14ac:dyDescent="0.5">
-      <c r="A40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>37</v>
+        <v>152</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>97</v>
@@ -4127,10 +4211,10 @@
         <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>97</v>
@@ -4138,13 +4222,13 @@
     </row>
     <row r="43" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>97</v>
@@ -4152,13 +4236,13 @@
     </row>
     <row r="44" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>97</v>
@@ -4169,10 +4253,10 @@
         <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>41</v>
+        <v>165</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>97</v>
@@ -4180,13 +4264,13 @@
     </row>
     <row r="46" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>42</v>
+        <v>166</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>97</v>
@@ -4194,27 +4278,30 @@
     </row>
     <row r="47" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>44</v>
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>97</v>
@@ -4222,89 +4309,86 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J50" s="1" t="s">
+    <row r="50" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+      <c r="A50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43" x14ac:dyDescent="0.5">
-      <c r="A51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" ht="43" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>48</v>
+        <v>190</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>97</v>
@@ -4312,13 +4396,13 @@
     </row>
     <row r="55" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>97</v>
@@ -4329,24 +4413,24 @@
         <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>52</v>
+        <v>199</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>97</v>
@@ -4354,27 +4438,27 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>218</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>97</v>
@@ -4385,38 +4469,38 @@
         <v>153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>56</v>
+        <v>220</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>226</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>97</v>
@@ -4424,86 +4508,89 @@
     </row>
     <row r="63" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>59</v>
+        <v>233</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" t="s">
-        <v>60</v>
+        <v>239</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+      <c r="A67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J66" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" ht="43" x14ac:dyDescent="0.5">
-      <c r="A68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>63</v>
+        <v>250</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>97</v>
@@ -4511,13 +4598,13 @@
     </row>
     <row r="70" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>249</v>
@@ -4531,10 +4618,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>249</v>
@@ -4545,13 +4632,13 @@
     </row>
     <row r="72" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>249</v>
@@ -4560,36 +4647,36 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="6"/>
       <c r="H73" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>97</v>
@@ -4597,16 +4684,13 @@
     </row>
     <row r="75" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>97</v>
@@ -4614,65 +4698,51 @@
     </row>
     <row r="76" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>70</v>
+        <v>271</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>71</v>
+        <v>277</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>97</v>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A81" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C81" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4963,6 +5033,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4971,10 +5044,10 @@
   <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C432" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11185,7 +11258,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11211,13 +11284,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2" t="s">
-        <v>711</v>
+        <v>722</v>
+      </c>
+      <c r="C2">
+        <v>2021053</v>
       </c>
       <c r="D2" t="s">
         <v>334</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_1_school_202105.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="725">
   <si>
     <t>label</t>
   </si>
@@ -2116,15 +2116,6 @@
     <t>c_school_code_other</t>
   </si>
   <si>
-    <t>1. Ethiopia-Reassessment School Form V3</t>
-  </si>
-  <si>
-    <t>202105_V3</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_1_school_202105_V3</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2210,6 +2201,18 @@
   </si>
   <si>
     <t>The code must be between 99 and 10000</t>
+  </si>
+  <si>
+    <t>Malka Karro</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_1_school_202105_V3.1</t>
+  </si>
+  <si>
+    <t>1. Ethiopia-Reassessment School Form V3.1</t>
+  </si>
+  <si>
+    <t>202105_V3.1</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3547,7 +3550,7 @@
         <v>679</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>675</v>
@@ -3591,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3602,7 +3605,7 @@
         <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>90</v>
@@ -3653,7 +3656,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>684</v>
@@ -3670,7 +3673,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>90</v>
@@ -3684,7 +3687,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>682</v>
@@ -3701,13 +3704,13 @@
         <v>689</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>682</v>
@@ -3724,7 +3727,7 @@
         <v>690</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>684</v>
@@ -3741,13 +3744,13 @@
         <v>691</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>684</v>
@@ -3764,7 +3767,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>90</v>
@@ -3772,28 +3775,28 @@
     </row>
     <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3804,7 +3807,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>90</v>
@@ -3818,7 +3821,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>110</v>
@@ -3838,7 +3841,7 @@
         <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>686</v>
@@ -3864,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>90</v>
@@ -3881,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>90</v>
@@ -3898,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>90</v>
@@ -3915,7 +3918,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>90</v>
@@ -3932,7 +3935,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>90</v>
@@ -3949,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>90</v>
@@ -3966,7 +3969,7 @@
         <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>90</v>
@@ -3983,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>90</v>
@@ -4000,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>90</v>
@@ -4020,7 +4023,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>90</v>
@@ -4037,7 +4040,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>90</v>
@@ -4054,7 +4057,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>90</v>
@@ -4071,7 +4074,7 @@
         <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>90</v>
@@ -4088,7 +4091,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>90</v>
@@ -4105,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>90</v>
@@ -4122,7 +4125,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>90</v>
@@ -4139,7 +4142,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>90</v>
@@ -4156,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>90</v>
@@ -5043,13 +5046,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E450"/>
+  <dimension ref="A1:E451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B446" sqref="B446"/>
+      <selection pane="bottomRight" activeCell="A397" sqref="A397:XFD397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10441,14 +10444,14 @@
         <v>105</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="D397" s="14"/>
       <c r="E397" s="14" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -10456,14 +10459,14 @@
         <v>105</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D398" s="14"/>
       <c r="E398" s="14" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -10471,14 +10474,14 @@
         <v>105</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D399" s="14"/>
       <c r="E399" s="14" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -10486,14 +10489,14 @@
         <v>105</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="14" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -10501,14 +10504,14 @@
         <v>105</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D401" s="14"/>
       <c r="E401" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -10516,14 +10519,14 @@
         <v>105</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D402" s="14"/>
       <c r="E402" s="14" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -10531,14 +10534,14 @@
         <v>105</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D403" s="14"/>
       <c r="E403" s="14" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -10546,14 +10549,14 @@
         <v>105</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D404" s="14"/>
       <c r="E404" s="14" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -10561,14 +10564,14 @@
         <v>105</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D405" s="14"/>
       <c r="E405" s="14" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -10576,14 +10579,14 @@
         <v>105</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D406" s="14"/>
       <c r="E406" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -10591,14 +10594,14 @@
         <v>105</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D407" s="14"/>
       <c r="E407" s="14" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -10606,14 +10609,14 @@
         <v>105</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D408" s="14"/>
       <c r="E408" s="14" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -10621,14 +10624,14 @@
         <v>105</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D409" s="14"/>
       <c r="E409" s="14" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -10636,14 +10639,14 @@
         <v>105</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D410" s="14"/>
       <c r="E410" s="14" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -10651,44 +10654,44 @@
         <v>105</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D411" s="14"/>
       <c r="E411" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D412" s="14"/>
+      <c r="E412" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B412" s="40" t="s">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B413" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="C412" s="40" t="s">
+      <c r="C413" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="D412" s="40"/>
-      <c r="E412" s="40" t="s">
+      <c r="D413" s="40"/>
+      <c r="E413" s="40" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="C413" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="D413" s="14"/>
-      <c r="E413" s="14" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -10696,14 +10699,14 @@
         <v>105</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D414" s="14"/>
       <c r="E414" s="14" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -10711,14 +10714,14 @@
         <v>105</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D415" s="14"/>
       <c r="E415" s="14" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -10726,14 +10729,14 @@
         <v>105</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D416" s="14"/>
       <c r="E416" s="14" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -10741,14 +10744,14 @@
         <v>105</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D417" s="14"/>
       <c r="E417" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -10756,14 +10759,14 @@
         <v>105</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D418" s="14"/>
       <c r="E418" s="14" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -10771,14 +10774,14 @@
         <v>105</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D419" s="14"/>
       <c r="E419" s="14" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -10786,14 +10789,14 @@
         <v>105</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D420" s="14"/>
       <c r="E420" s="14" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -10801,14 +10804,14 @@
         <v>105</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D421" s="14"/>
       <c r="E421" s="14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -10816,14 +10819,14 @@
         <v>105</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D422" s="14"/>
       <c r="E422" s="14" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -10831,14 +10834,14 @@
         <v>105</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D423" s="14"/>
       <c r="E423" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -10846,14 +10849,14 @@
         <v>105</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D424" s="14"/>
       <c r="E424" s="14" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -10861,14 +10864,14 @@
         <v>105</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D425" s="14"/>
       <c r="E425" s="14" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -10876,14 +10879,14 @@
         <v>105</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D426" s="14"/>
       <c r="E426" s="14" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -10891,14 +10894,14 @@
         <v>105</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D427" s="14"/>
       <c r="E427" s="14" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -10906,14 +10909,14 @@
         <v>105</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D428" s="14"/>
       <c r="E428" s="14" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -10921,14 +10924,14 @@
         <v>105</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D429" s="14"/>
       <c r="E429" s="14" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -10936,14 +10939,14 @@
         <v>105</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D430" s="14"/>
       <c r="E430" s="14" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -10951,14 +10954,14 @@
         <v>105</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D431" s="14"/>
       <c r="E431" s="14" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -10966,14 +10969,14 @@
         <v>105</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D432" s="14"/>
       <c r="E432" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -10981,14 +10984,14 @@
         <v>105</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D433" s="14"/>
       <c r="E433" s="14" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -10996,14 +10999,14 @@
         <v>105</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D434" s="14"/>
       <c r="E434" s="14" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -11011,14 +11014,14 @@
         <v>105</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D435" s="14"/>
       <c r="E435" s="14" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -11026,14 +11029,14 @@
         <v>105</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D436" s="14"/>
       <c r="E436" s="14" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -11041,14 +11044,14 @@
         <v>105</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D437" s="14"/>
       <c r="E437" s="14" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -11056,14 +11059,14 @@
         <v>105</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D438" s="14"/>
       <c r="E438" s="14" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -11071,14 +11074,14 @@
         <v>105</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D439" s="14"/>
       <c r="E439" s="14" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -11086,14 +11089,14 @@
         <v>105</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D440" s="14"/>
       <c r="E440" s="14" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -11101,14 +11104,14 @@
         <v>105</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D441" s="14"/>
       <c r="E441" s="14" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -11116,14 +11119,14 @@
         <v>105</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D442" s="14"/>
       <c r="E442" s="14" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -11131,14 +11134,14 @@
         <v>105</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D443" s="14"/>
       <c r="E443" s="14" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -11146,14 +11149,14 @@
         <v>105</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D444" s="14"/>
       <c r="E444" s="14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -11161,14 +11164,14 @@
         <v>105</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D445" s="14"/>
       <c r="E445" s="14" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -11176,14 +11179,14 @@
         <v>105</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D446" s="14"/>
       <c r="E446" s="14" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -11191,14 +11194,14 @@
         <v>105</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D447" s="14"/>
       <c r="E447" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -11206,14 +11209,14 @@
         <v>105</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D448" s="14"/>
       <c r="E448" s="14" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -11221,14 +11224,14 @@
         <v>105</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D449" s="14"/>
       <c r="E449" s="14" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -11236,13 +11239,28 @@
         <v>105</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D450" s="14"/>
       <c r="E450" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C451" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11259,8 +11277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11286,13 +11304,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="D2" t="s">
         <v>325</v>
@@ -11305,23 +11323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -11544,10 +11545,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11570,20 +11599,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>